--- a/biology/Botanique/Plantago_lanceolata/Plantago_lanceolata.xlsx
+++ b/biology/Botanique/Plantago_lanceolata/Plantago_lanceolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantago lanceolata, le Plantain lancéolé, Plantain étroit ou « Herbe à cinq coutures ou à cinq côtes[1] » est une plante herbacée vivace de la famille des Plantaginacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantago lanceolata, le Plantain lancéolé, Plantain étroit ou « Herbe à cinq coutures ou à cinq côtes » est une plante herbacée vivace de la famille des Plantaginacées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de taille moyenne (15-50 cm), qui prend des formes variables selon la richesse du milieu, l'ensoleillement et l'hydromorphie du sol.
 Les feuilles du plantain lancéolé sont en forme de fer de lance (lancéolées) et disposées en rosette basale ; les 3 – 5 nervures saillantes presque parallèles sont marquées.
@@ -527,9 +541,44 @@
 			rare spécimen uniquement femelle
 			Fleurs femelles inhabituellement longues
 			Fleurs de Plantago lanceolata
-Caractéristiques
-Organes reproducteurs
-La floraison a lieu d'avril à octobre sur le littoral méditerranéen[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
+La floraison a lieu d'avril à octobre sur le littoral méditerranéen.
 Couleur dominante des fleurs : blanc
 Inflorescence : épi simple
 Sexualité : hermaphrodite et femelle (puisque c'est une plante gynodioïque).
@@ -546,38 +595,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Plantago_lanceolata</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plantago_lanceolata</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Plante hôte</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une source alternative de nourriture pour les chenilles des papillons Mélitée du plantain et Mélitée du mélampyre ou encore celle de l’écaille du plantain et la seule nourriture pour la chenille de Scopula rubraria, un papillon de nuit australien[3].
-Le plantain lancéolé étant un hôte secondaire potentiel du puceron cendré du pommier, il a parfois été recommandé de l'éliminer aux abords des vergers[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -599,19 +616,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vertus médicinales</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Propriétés
-Qualités : astringent, cicatrisant ; utilisation contre les inflammations, les hémorroïdes[réf. nécessaire].
-Contrairement aux autres parties de la plante, son pollen n'a pas de vertus bénéfiques et peut provoquer des rhinites allergiques entre mai et juillet.
-Usage médicinal : infusion, cataplasme, jus, teintures
-Le plantain est utilisé en premier lieu contre toutes les maladies des organes respiratoires et tout particulièrement en cas d'engorgement des poumons, de toux grasse, de coqueluche, d'asthme pulmonaire, même en cas de tuberculose pulmonaire pour désinfecter les voies respiratoires. Au début du XXe siècle, l'abbé Johann Künzle, herboriste populaire suisse, écrit que « le plantain est utilisé, quelle que soit l'espèce, avec la racine, la plante avec les feuilles, la fleur et les graines. Il purifie comme aucune autre plante ne peut le faire le sang, les poumons et l'estomac et est indiqué pour cette raison aux personnes anémiques ou dont le sang est de mauvaise qualité, dont les poumons et les reins sont faibles, qui sont de pâleur maladive, qui ont des exanthèmes, des dartres ou qui toussotent, qui sont enroués, et restent maigres comme des clous même si on les gave comme des oies »[5].
-Le plantain s'utilise en infusion (1 cuillerée à café bombée de feuilles avec 1/4 de litre d'eau, laisser infuser brièvement), en cataplasme de feuilles broyées ou en sirop[5].
-Contre les piqûres (moustiques, guêpes, orties…) et les démangeaisons, frotter une ou plusieurs feuilles sur l’endroit de la piqûre jusqu’à en extraire le suc.
-Les feuilles fraîches, riches en mucilages, peuvent être utilisées en cataplasme pour arrêter les saignements ou soigner les ampoules[réf. nécessaire].</t>
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une source alternative de nourriture pour les chenilles des papillons Mélitée du plantain et Mélitée du mélampyre ou encore celle de l’écaille du plantain et la seule nourriture pour la chenille de Scopula rubraria, un papillon de nuit australien.
+Le plantain lancéolé étant un hôte secondaire potentiel du puceron cendré du pommier, il a parfois été recommandé de l'éliminer aux abords des vergers.
+</t>
         </is>
       </c>
     </row>
@@ -636,15 +650,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Usages</t>
+          <t>Vertus médicinales</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toute la plante est comestible (feuilles, fleurs, fruits, graines). Les jeunes feuilles tendres, au goût de champignon, se mangent crues en salade Les feuilles plus âgées coriaces se consomment cuites en soupe ou comme légume[6],[7].
-Pour l'alimentation des animaux voir le Grand plantain. Les plantains sont communs dans les prairies permanentes où ils résistent bien au piétinement et au surpâturage.
-Dans les campagnes, ce plantain était utilisé pour faire le jeu de la « catapulte ». Il consistait à fabriquer une boucle avec le pédoncule floral puis à tirer violemment sur ce dernier glissant dans l'anneau. Le cône pyramidal de la fleur de plantain ne pouvant passer au travers de la boucle était éjecté comme par une catapulte[8].
-</t>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Qualités : astringent, cicatrisant ; utilisation contre les inflammations, les hémorroïdes[réf. nécessaire].
+Contrairement aux autres parties de la plante, son pollen n'a pas de vertus bénéfiques et peut provoquer des rhinites allergiques entre mai et juillet.</t>
         </is>
       </c>
     </row>
@@ -669,13 +687,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Palynologie</t>
+          <t>Vertus médicinales</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante est très utilisée en palynologie pour dater le début du néolithique et des activités agro-pastorales chez les humains. C'est en effet une plante qui apparait dans les zones piétinées et également dans les zones cultivées. L'augmentation du taux de pollen de cette plante, ou au contraire sa diminution est donc directement reliée à l'augmentation ou à la diminution des activités agro-pastorales[9].
-</t>
+          <t>Usage médicinal : infusion, cataplasme, jus, teintures</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le plantain est utilisé en premier lieu contre toutes les maladies des organes respiratoires et tout particulièrement en cas d'engorgement des poumons, de toux grasse, de coqueluche, d'asthme pulmonaire, même en cas de tuberculose pulmonaire pour désinfecter les voies respiratoires. Au début du XXe siècle, l'abbé Johann Künzle, herboriste populaire suisse, écrit que « le plantain est utilisé, quelle que soit l'espèce, avec la racine, la plante avec les feuilles, la fleur et les graines. Il purifie comme aucune autre plante ne peut le faire le sang, les poumons et l'estomac et est indiqué pour cette raison aux personnes anémiques ou dont le sang est de mauvaise qualité, dont les poumons et les reins sont faibles, qui sont de pâleur maladive, qui ont des exanthèmes, des dartres ou qui toussotent, qui sont enroués, et restent maigres comme des clous même si on les gave comme des oies ».
+Le plantain s'utilise en infusion (1 cuillerée à café bombée de feuilles avec 1/4 de litre d'eau, laisser infuser brièvement), en cataplasme de feuilles broyées ou en sirop.
+Contre les piqûres (moustiques, guêpes, orties…) et les démangeaisons, frotter une ou plusieurs feuilles sur l’endroit de la piqûre jusqu’à en extraire le suc.
+Les feuilles fraîches, riches en mucilages, peuvent être utilisées en cataplasme pour arrêter les saignements ou soigner les ampoules[réf. nécessaire].</t>
         </is>
       </c>
     </row>
@@ -700,10 +726,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toute la plante est comestible (feuilles, fleurs, fruits, graines). Les jeunes feuilles tendres, au goût de champignon, se mangent crues en salade Les feuilles plus âgées coriaces se consomment cuites en soupe ou comme légume,.
+Pour l'alimentation des animaux voir le Grand plantain. Les plantains sont communs dans les prairies permanentes où ils résistent bien au piétinement et au surpâturage.
+Dans les campagnes, ce plantain était utilisé pour faire le jeu de la « catapulte ». Il consistait à fabriquer une boucle avec le pédoncule floral puis à tirer violemment sur ce dernier glissant dans l'anneau. Le cône pyramidal de la fleur de plantain ne pouvant passer au travers de la boucle était éjecté comme par une catapulte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Palynologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est très utilisée en palynologie pour dater le début du néolithique et des activités agro-pastorales chez les humains. C'est en effet une plante qui apparait dans les zones piétinées et également dans les zones cultivées. L'augmentation du taux de pollen de cette plante, ou au contraire sa diminution est donc directement reliée à l'augmentation ou à la diminution des activités agro-pastorales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_lanceolata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Légende</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">... selon deux récits de haute Bretagne, rapportés par Lucie De V.-H., Revue des Traditions Populaires - R.T.P., T. 15-1900, pp. 336-337
 Un tailleur de Ruca avait vendu son âme au diable, à la condition que pendant dix années Satan le comblerait des biens de ce monde. À ce pacte il n'avait mis qu'une restriction, c'est que, s'il présentait à la place de son âme une couture si finement faite que les yeux du diable ne pussent la distinguer, non seulement il serait libéré, mais encore il aurait la possession entière des biens dont il ne devait jouir que dix ans. Le diable, qui est un malin, se croyait certain de découvrir n'importe quelle fine couture et sans hésiter il accepta le marché.
